--- a/Product_List.xlsx
+++ b/Product_List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9707"/>
+    <workbookView windowWidth="28800" windowHeight="12885"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>Mã SP</t>
   </si>
@@ -59,7 +59,7 @@
     <t>Túi tote tái chế</t>
   </si>
   <si>
-    <t>Tote</t>
+    <t>Tote Bag</t>
   </si>
   <si>
     <t>Vải canvas tái chế</t>
@@ -71,7 +71,7 @@
     <t>Còn hàng</t>
   </si>
   <si>
-    <t>pic1</t>
+    <t>https://i5.walmartimages.com/asr/39057d5c-ce40-46f6-ab70-296a2c55eade_1.d8c7294041ff6a25d9624443d79d650d.jpeg</t>
   </si>
   <si>
     <t>SP002</t>
@@ -80,7 +80,7 @@
     <t>Túi đeo chéo tái chế</t>
   </si>
   <si>
-    <t>Đeo chéo</t>
+    <t>Crossbody Bag</t>
   </si>
   <si>
     <t>Da PU tái chế</t>
@@ -89,7 +89,7 @@
     <t>Màu đen</t>
   </si>
   <si>
-    <t>pic2</t>
+    <t>https://www.dhgate.com/blog/wp-content/uploads/2023/08/tiktok-summer-crossbody-bags-realsimple-b0b5a9c2ca5b418f83861b1de467d905.jpg</t>
   </si>
   <si>
     <t>SP003</t>
@@ -98,6 +98,9 @@
     <t>Túi vải bố tái chế</t>
   </si>
   <si>
+    <t>Handbag</t>
+  </si>
+  <si>
     <t>Vải bố</t>
   </si>
   <si>
@@ -107,7 +110,7 @@
     <t>Hết hàng</t>
   </si>
   <si>
-    <t>pic3</t>
+    <t>https://images-eu.ssl-images-amazon.com/images/I/814iogRTu5L.jpg</t>
   </si>
   <si>
     <t>SP004</t>
@@ -116,7 +119,7 @@
     <t>Túi du lịch tái chế</t>
   </si>
   <si>
-    <t>Du lịch</t>
+    <t>Shoulder Bag</t>
   </si>
   <si>
     <t>Vải dù tái chế</t>
@@ -125,7 +128,7 @@
     <t>Màu xanh</t>
   </si>
   <si>
-    <t>pic4</t>
+    <t>https://cdn.shopify.com/s/files/1/1348/0897/products/6_b3e4d4c4-bf35-4e97-94ad-0cec5baa8a97.jpg?v=1568823400</t>
   </si>
   <si>
     <t>SP005</t>
@@ -134,7 +137,7 @@
     <t>Túi laptop tái chế</t>
   </si>
   <si>
-    <t>Laptop</t>
+    <t>clutch bag</t>
   </si>
   <si>
     <t>Vải tổng hợp tái chế</t>
@@ -143,7 +146,25 @@
     <t>Màu xám</t>
   </si>
   <si>
-    <t>pic5</t>
+    <t>https://cdnd.lystit.com/photos/cdfc-2016/03/20/urban-originals-navy-clutch-bag-with-studded-handle-blue-product-0-700334180-normal.jpeg</t>
+  </si>
+  <si>
+    <t>SP006</t>
+  </si>
+  <si>
+    <t>Túi đeo công sở</t>
+  </si>
+  <si>
+    <t>Backpack</t>
+  </si>
+  <si>
+    <t>Vải Kaki</t>
+  </si>
+  <si>
+    <t>Màu đỏ</t>
+  </si>
+  <si>
+    <t>https://static.super-shop.com/1329423-converse-go-2-backpack-black.jpg?t=fb</t>
   </si>
 </sst>
 </file>
@@ -156,7 +177,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,15 +196,20 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -650,141 +676,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,13 +1165,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="6" outlineLevelCol="7"/>
+  <cols>
+    <col min="2" max="2" width="26.4285714285714" customWidth="1"/>
+    <col min="3" max="3" width="18.4285714285714" customWidth="1"/>
+    <col min="4" max="4" width="22.1428571428571" customWidth="1"/>
+    <col min="8" max="8" width="159.285714285714" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
@@ -1187,7 +1227,7 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="2" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1213,7 +1253,7 @@
       <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="2" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1224,40 +1264,40 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4">
         <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" t="s">
         <v>26</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F5">
         <v>450</v>
@@ -1265,25 +1305,25 @@
       <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" t="s">
-        <v>32</v>
+      <c r="H5" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>400</v>
@@ -1291,11 +1331,45 @@
       <c r="G6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
-        <v>38</v>
+      <c r="H6" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>500</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" display="https://i5.walmartimages.com/asr/39057d5c-ce40-46f6-ab70-296a2c55eade_1.d8c7294041ff6a25d9624443d79d650d.jpeg" tooltip="https://i5.walmartimages.com/asr/39057d5c-ce40-46f6-ab70-296a2c55eade_1.d8c7294041ff6a25d9624443d79d650d.jpeg"/>
+    <hyperlink ref="H3" r:id="rId2" display="https://www.dhgate.com/blog/wp-content/uploads/2023/08/tiktok-summer-crossbody-bags-realsimple-b0b5a9c2ca5b418f83861b1de467d905.jpg" tooltip="https://www.dhgate.com/blog/wp-content/uploads/2023/08/tiktok-summer-crossbody-bags-realsimple-b0b5a9c2ca5b418f83861b1de467d905.jpg"/>
+    <hyperlink ref="H4" r:id="rId3" display="https://images-eu.ssl-images-amazon.com/images/I/814iogRTu5L.jpg" tooltip="https://images-eu.ssl-images-amazon.com/images/I/814iogRTu5L.jpg"/>
+    <hyperlink ref="H5" r:id="rId4" display="https://cdn.shopify.com/s/files/1/1348/0897/products/6_b3e4d4c4-bf35-4e97-94ad-0cec5baa8a97.jpg?v=1568823400" tooltip="https://cdn.shopify.com/s/files/1/1348/0897/products/6_b3e4d4c4-bf35-4e97-94ad-0cec5baa8a97.jpg?v=1568823400"/>
+    <hyperlink ref="H6" r:id="rId5" display="https://cdnd.lystit.com/photos/cdfc-2016/03/20/urban-originals-navy-clutch-bag-with-studded-handle-blue-product-0-700334180-normal.jpeg" tooltip="https://cdnd.lystit.com/photos/cdfc-2016/03/20/urban-originals-navy-clutch-bag-with-studded-handle-blue-product-0-700334180-normal.jpeg"/>
+    <hyperlink ref="H7" r:id="rId6" display="https://static.super-shop.com/1329423-converse-go-2-backpack-black.jpg?t=fb" tooltip="https://static.super-shop.com/1329423-converse-go-2-backpack-black.jpg?t=fb"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
